--- a/tests/db_files/db_encoding.xlsx
+++ b/tests/db_files/db_encoding.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.borbely\code\git\msl-equipment\tests\db_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\git\msl-equipment\tests\db_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Register!$A$1:$G$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Register!$A:$G,Register!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -157,7 +157,7 @@
     </r>
   </si>
   <si>
-    <t>GPIB::4</t>
+    <t>SOCKET::1.2.3.4::1234</t>
   </si>
 </sst>
 </file>
@@ -722,19 +722,19 @@
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="10.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.73046875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.73046875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.73046875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.3984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.86328125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="14" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="14" customFormat="1" ht="10.5" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -757,7 +757,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -780,7 +780,7 @@
         <v>39101</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -801,7 +801,7 @@
         <v>41737</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
         <v>11</v>
       </c>
@@ -818,7 +818,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -836,7 +836,7 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
@@ -880,21 +880,21 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="10.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="17.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.53125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="10.5" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
@@ -914,7 +914,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -929,7 +929,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>16</v>
       </c>
